--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H2">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I2">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J2">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.9078655</v>
+        <v>0.8649065</v>
       </c>
       <c r="N2">
-        <v>3.815731</v>
+        <v>1.729813</v>
       </c>
       <c r="O2">
-        <v>0.01269552586568416</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P2">
-        <v>0.00849965309904553</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q2">
-        <v>11.88851567779625</v>
+        <v>25.392139523812</v>
       </c>
       <c r="R2">
-        <v>47.554062711185</v>
+        <v>101.568558095248</v>
       </c>
       <c r="S2">
-        <v>7.459985045451574E-05</v>
+        <v>7.948877629712227E-05</v>
       </c>
       <c r="T2">
-        <v>3.364186007908746E-05</v>
+        <v>3.618755464229851E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H3">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I3">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J3">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.008888468356299806</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P3">
-        <v>0.008926242805105003</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q3">
-        <v>8.323459502460835</v>
+        <v>39.21517211909067</v>
       </c>
       <c r="R3">
-        <v>49.940757014765</v>
+        <v>235.291032714544</v>
       </c>
       <c r="S3">
-        <v>5.222929850759103E-05</v>
+        <v>0.0001227610631669835</v>
       </c>
       <c r="T3">
-        <v>3.53303138353994E-05</v>
+        <v>8.383113103974224E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H4">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I4">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J4">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.66363666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N4">
-        <v>193.99091</v>
+        <v>310.951851</v>
       </c>
       <c r="O4">
-        <v>0.4302917956590069</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P4">
-        <v>0.4321204611562404</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q4">
-        <v>402.9396507746417</v>
+        <v>3043.000519239016</v>
       </c>
       <c r="R4">
-        <v>2417.63790464785</v>
+        <v>18258.0031154341</v>
       </c>
       <c r="S4">
-        <v>0.002528426466739125</v>
+        <v>0.009525955357916375</v>
       </c>
       <c r="T4">
-        <v>0.001710344636672462</v>
+        <v>0.006505088757678642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H5">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I5">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J5">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.745477</v>
+        <v>0.2220785</v>
       </c>
       <c r="N5">
-        <v>5.236431</v>
+        <v>0.444157</v>
       </c>
       <c r="O5">
-        <v>0.01161494266836776</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P5">
-        <v>0.01166430416009097</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q5">
-        <v>10.8766213759475</v>
+        <v>6.519835678468</v>
       </c>
       <c r="R5">
-        <v>65.259728255685</v>
+        <v>26.079342713872</v>
       </c>
       <c r="S5">
-        <v>6.825026353891131E-05</v>
+        <v>2.04100075637083E-05</v>
       </c>
       <c r="T5">
-        <v>4.616763577301336E-05</v>
+        <v>9.291730208559756E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.2313175</v>
+        <v>29.358248</v>
       </c>
       <c r="H6">
-        <v>12.462635</v>
+        <v>58.716496</v>
       </c>
       <c r="I6">
-        <v>0.00587607407867666</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J6">
-        <v>0.003958027426185815</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.62584666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N6">
-        <v>241.87754</v>
+        <v>434.038033</v>
       </c>
       <c r="O6">
-        <v>0.5365092674506413</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P6">
-        <v>0.5387893387795181</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q6">
-        <v>502.4052492863166</v>
+        <v>4247.532071415394</v>
       </c>
       <c r="R6">
-        <v>3014.4314957179</v>
+        <v>25485.19242849237</v>
       </c>
       <c r="S6">
-        <v>0.003152568199436517</v>
+        <v>0.01329667893179975</v>
       </c>
       <c r="T6">
-        <v>0.002132542979825853</v>
+        <v>0.009080042198794472</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1014.532837</v>
+        <v>29.358248</v>
       </c>
       <c r="H7">
-        <v>3043.598511</v>
+        <v>58.716496</v>
       </c>
       <c r="I7">
-        <v>0.9566949694766785</v>
+        <v>0.02696851982721014</v>
       </c>
       <c r="J7">
-        <v>0.9666211343617389</v>
+        <v>0.01839353552869724</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.9078655</v>
+        <v>42.688082</v>
       </c>
       <c r="N7">
-        <v>3.815731</v>
+        <v>128.064246</v>
       </c>
       <c r="O7">
-        <v>0.01269552586568416</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P7">
-        <v>0.00849965309904553</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q7">
-        <v>1935.592198329424</v>
+        <v>1253.247298000336</v>
       </c>
       <c r="R7">
-        <v>11613.55318997654</v>
+        <v>7519.483788002016</v>
       </c>
       <c r="S7">
-        <v>0.01214574573056109</v>
+        <v>0.003923225690466208</v>
       </c>
       <c r="T7">
-        <v>0.008215944320280659</v>
+        <v>0.002679094156333522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J8">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.335746333333333</v>
+        <v>0.8649065</v>
       </c>
       <c r="N8">
-        <v>4.007239</v>
+        <v>1.729813</v>
       </c>
       <c r="O8">
-        <v>0.008888468356299806</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P8">
-        <v>0.008926242805105003</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q8">
-        <v>1355.158517069015</v>
+        <v>877.4760451847405</v>
       </c>
       <c r="R8">
-        <v>12196.42665362113</v>
+        <v>5264.856271108443</v>
       </c>
       <c r="S8">
-        <v>0.008503552962824667</v>
+        <v>0.00274689326578268</v>
       </c>
       <c r="T8">
-        <v>0.008628294945858908</v>
+        <v>0.001875799731408204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J9">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>64.66363666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N9">
-        <v>193.99091</v>
+        <v>4.007239</v>
       </c>
       <c r="O9">
-        <v>0.4302917956590069</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P9">
-        <v>0.4321204611562404</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q9">
-        <v>65603.38275817056</v>
+        <v>1355.158517069015</v>
       </c>
       <c r="R9">
-        <v>590430.444823535</v>
+        <v>12196.42665362113</v>
       </c>
       <c r="S9">
-        <v>0.4116579963140589</v>
+        <v>0.004242253478066403</v>
       </c>
       <c r="T9">
-        <v>0.4176967703437628</v>
+        <v>0.004345427997065857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J10">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.745477</v>
+        <v>103.650617</v>
       </c>
       <c r="N10">
-        <v>5.236431</v>
+        <v>310.951851</v>
       </c>
       <c r="O10">
-        <v>0.01161494266836776</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P10">
-        <v>0.01166430416009097</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q10">
-        <v>1770.843732728249</v>
+        <v>105156.9545218104</v>
       </c>
       <c r="R10">
-        <v>15937.59359455424</v>
+        <v>946412.590696294</v>
       </c>
       <c r="S10">
-        <v>0.01111195722158746</v>
+        <v>0.3291883941576572</v>
       </c>
       <c r="T10">
-        <v>0.01127496291876749</v>
+        <v>0.3371944820548139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.9566949694766785</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J11">
-        <v>0.9666211343617389</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>80.62584666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N11">
-        <v>241.87754</v>
+        <v>0.444157</v>
       </c>
       <c r="O11">
-        <v>0.5365092674506413</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P11">
-        <v>0.5387893387795181</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q11">
-        <v>81797.56895426032</v>
+        <v>225.3059306417045</v>
       </c>
       <c r="R11">
-        <v>736178.1205883429</v>
+        <v>1351.835583850227</v>
       </c>
       <c r="S11">
-        <v>0.5132757172476464</v>
+        <v>0.0007053085346509927</v>
       </c>
       <c r="T11">
-        <v>0.520805161833069</v>
+        <v>0.0004816414151720872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3795506666666666</v>
+        <v>1014.532837</v>
       </c>
       <c r="H12">
-        <v>1.138652</v>
+        <v>3043.598511</v>
       </c>
       <c r="I12">
-        <v>0.0003579127261521251</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J12">
-        <v>0.0003616262407493544</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.9078655</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N12">
-        <v>3.815731</v>
+        <v>434.038033</v>
       </c>
       <c r="O12">
-        <v>0.01269552586568416</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P12">
-        <v>0.00849965309904553</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q12">
-        <v>0.7241316224353332</v>
+        <v>146781.9456617965</v>
       </c>
       <c r="R12">
-        <v>4.344789734612</v>
+        <v>1321037.510956169</v>
       </c>
       <c r="S12">
-        <v>4.543890272521835E-06</v>
+        <v>0.459493270829953</v>
       </c>
       <c r="T12">
-        <v>3.073697597881435E-06</v>
+        <v>0.4706684628467616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3795506666666666</v>
+        <v>1014.532837</v>
       </c>
       <c r="H13">
-        <v>1.138652</v>
+        <v>3043.598511</v>
       </c>
       <c r="I13">
-        <v>0.0003579127261521251</v>
+        <v>0.9319510118584139</v>
       </c>
       <c r="J13">
-        <v>0.0003616262407493544</v>
+        <v>0.9534379801405131</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.335746333333333</v>
+        <v>42.688082</v>
       </c>
       <c r="N13">
-        <v>4.007239</v>
+        <v>128.064246</v>
       </c>
       <c r="O13">
-        <v>0.008888468356299806</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P13">
-        <v>0.008926242805105003</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q13">
-        <v>0.5069834113142222</v>
+        <v>43308.46093754864</v>
       </c>
       <c r="R13">
-        <v>4.562850701828</v>
+        <v>389776.1484379377</v>
       </c>
       <c r="S13">
-        <v>3.181295940720162E-06</v>
+        <v>0.1355748915923037</v>
       </c>
       <c r="T13">
-        <v>3.227963629626095E-06</v>
+        <v>0.1388721660952913</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H14">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I14">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>64.66363666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N14">
-        <v>193.99091</v>
+        <v>1.729813</v>
       </c>
       <c r="O14">
-        <v>0.4302917956590069</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P14">
-        <v>0.4321204611562404</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q14">
-        <v>24.54312640592444</v>
+        <v>0.0912363919655</v>
       </c>
       <c r="R14">
-        <v>220.88813765332</v>
+        <v>0.547418351793</v>
       </c>
       <c r="S14">
-        <v>0.0001540069096252083</v>
+        <v>2.856107948013293E-07</v>
       </c>
       <c r="T14">
-        <v>0.0001562660979188087</v>
+        <v>1.950380303629908E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.105487</v>
+      </c>
+      <c r="H15">
+        <v>0.316461</v>
+      </c>
+      <c r="I15">
+        <v>9.69004775425603E-05</v>
+      </c>
+      <c r="J15">
+        <v>9.913460515332959E-05</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="L15">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G15">
-        <v>0.3795506666666666</v>
-      </c>
-      <c r="H15">
-        <v>1.138652</v>
-      </c>
-      <c r="I15">
-        <v>0.0003579127261521251</v>
-      </c>
-      <c r="J15">
-        <v>0.0003616262407493544</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>1.745477</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N15">
-        <v>5.236431</v>
+        <v>4.007239</v>
       </c>
       <c r="O15">
-        <v>0.01161494266836776</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P15">
-        <v>0.01166430416009097</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q15">
-        <v>0.6624969590013333</v>
+        <v>0.1409038734643333</v>
       </c>
       <c r="R15">
-        <v>5.962472631012</v>
+        <v>1.268134861179</v>
       </c>
       <c r="S15">
-        <v>4.157135794536143E-06</v>
+        <v>4.410922705706278E-07</v>
       </c>
       <c r="T15">
-        <v>4.218118464370754E-06</v>
+        <v>4.518199376197085E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3795506666666666</v>
+        <v>0.105487</v>
       </c>
       <c r="H16">
-        <v>1.138652</v>
+        <v>0.316461</v>
       </c>
       <c r="I16">
-        <v>0.0003579127261521251</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003616262407493544</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.62584666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N16">
-        <v>241.87754</v>
+        <v>310.951851</v>
       </c>
       <c r="O16">
-        <v>0.5365092674506413</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P16">
-        <v>0.5387893387795181</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q16">
-        <v>30.60159385289777</v>
+        <v>10.933792635479</v>
       </c>
       <c r="R16">
-        <v>275.41434467608</v>
+        <v>98.40413371931101</v>
       </c>
       <c r="S16">
-        <v>0.0001920234945191387</v>
+        <v>3.422767097139191E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001948403631386675</v>
+        <v>3.506011144370299E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4379255</v>
+        <v>0.105487</v>
       </c>
       <c r="H17">
-        <v>52.875851</v>
+        <v>0.316461</v>
       </c>
       <c r="I17">
-        <v>0.02493071629306879</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J17">
-        <v>0.01679292288034711</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.9078655</v>
+        <v>0.2220785</v>
       </c>
       <c r="N17">
-        <v>3.815731</v>
+        <v>0.444157</v>
       </c>
       <c r="O17">
-        <v>0.01269552586568416</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P17">
-        <v>0.00849965309904553</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q17">
-        <v>50.44000595302025</v>
+        <v>0.0234263947295</v>
       </c>
       <c r="R17">
-        <v>201.760023812081</v>
+        <v>0.140558368377</v>
       </c>
       <c r="S17">
-        <v>0.0003165085535486883</v>
+        <v>7.333511413463422E-08</v>
       </c>
       <c r="T17">
-        <v>0.0001427340190019749</v>
+        <v>5.007911632756541E-08</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.4379255</v>
+        <v>0.105487</v>
       </c>
       <c r="H18">
-        <v>52.875851</v>
+        <v>0.316461</v>
       </c>
       <c r="I18">
-        <v>0.02493071629306879</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J18">
-        <v>0.01679292288034711</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.335746333333333</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N18">
-        <v>4.007239</v>
+        <v>434.038033</v>
       </c>
       <c r="O18">
-        <v>0.008888468356299806</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P18">
-        <v>0.008926242805105003</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q18">
-        <v>35.31436204756484</v>
+        <v>15.26178999569033</v>
       </c>
       <c r="R18">
-        <v>211.886172285389</v>
+        <v>137.356109961213</v>
       </c>
       <c r="S18">
-        <v>0.0002215958828708299</v>
+        <v>4.777624231795983E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001498977070373815</v>
+        <v>4.893819335323922E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.4379255</v>
+        <v>0.105487</v>
       </c>
       <c r="H19">
-        <v>52.875851</v>
+        <v>0.316461</v>
       </c>
       <c r="I19">
-        <v>0.02493071629306879</v>
+        <v>9.69004775425603E-05</v>
       </c>
       <c r="J19">
-        <v>0.01679292288034711</v>
+        <v>9.913460515332959E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>64.66363666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N19">
-        <v>193.99091</v>
+        <v>128.064246</v>
       </c>
       <c r="O19">
-        <v>0.4302917956590069</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P19">
-        <v>0.4321204611562404</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q19">
-        <v>1709.572408752402</v>
+        <v>4.503037705934</v>
       </c>
       <c r="R19">
-        <v>10257.43445251441</v>
+        <v>40.527339353406</v>
       </c>
       <c r="S19">
-        <v>0.01072748268080983</v>
+        <v>1.409652607370198E-05</v>
       </c>
       <c r="T19">
-        <v>0.007256565579216773</v>
+        <v>1.443936327207711E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H20">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I20">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J20">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.745477</v>
+        <v>0.8649065</v>
       </c>
       <c r="N20">
-        <v>5.236431</v>
+        <v>1.729813</v>
       </c>
       <c r="O20">
-        <v>0.01161494266836776</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P20">
-        <v>0.01166430416009097</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q20">
-        <v>46.1467908879635</v>
+        <v>38.26485562701176</v>
       </c>
       <c r="R20">
-        <v>276.880745327781</v>
+        <v>153.059422508047</v>
       </c>
       <c r="S20">
-        <v>0.000289568840425336</v>
+        <v>0.0001197861466586882</v>
       </c>
       <c r="T20">
-        <v>0.0001958777602133196</v>
+        <v>5.453307912803526E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.4379255</v>
+        <v>44.2416095</v>
       </c>
       <c r="H21">
-        <v>52.875851</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I21">
-        <v>0.02493071629306879</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J21">
-        <v>0.01679292288034711</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>80.62584666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N21">
-        <v>241.87754</v>
+        <v>4.007239</v>
       </c>
       <c r="O21">
-        <v>0.5365092674506413</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P21">
-        <v>0.5387893387795181</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q21">
-        <v>2131.580127547757</v>
+        <v>59.09556767039017</v>
       </c>
       <c r="R21">
-        <v>12789.48076528654</v>
+        <v>354.573406022341</v>
       </c>
       <c r="S21">
-        <v>0.0133755603354141</v>
+        <v>0.0001849956107203168</v>
       </c>
       <c r="T21">
-        <v>0.009047847814877658</v>
+        <v>0.000126329887376236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.51036533333333</v>
+        <v>44.2416095</v>
       </c>
       <c r="H22">
-        <v>34.531096</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I22">
-        <v>0.01085416677473077</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J22">
-        <v>0.0109667839124114</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.9078655</v>
+        <v>103.650617</v>
       </c>
       <c r="N22">
-        <v>3.815731</v>
+        <v>310.951851</v>
       </c>
       <c r="O22">
-        <v>0.01269552586568416</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P22">
-        <v>0.00849965309904553</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q22">
-        <v>21.96022891186266</v>
+        <v>4585.670121748062</v>
       </c>
       <c r="R22">
-        <v>131.761373471176</v>
+        <v>27514.02073048837</v>
       </c>
       <c r="S22">
-        <v>0.0001377993550390441</v>
+        <v>0.01435520256724342</v>
       </c>
       <c r="T22">
-        <v>9.321385886769024E-05</v>
+        <v>0.009802887303767535</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.51036533333333</v>
+        <v>44.2416095</v>
       </c>
       <c r="H23">
-        <v>34.531096</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I23">
-        <v>0.01085416677473077</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J23">
-        <v>0.0109667839124114</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>1.335746333333333</v>
+        <v>0.2220785</v>
       </c>
       <c r="N23">
-        <v>4.007239</v>
+        <v>0.444157</v>
       </c>
       <c r="O23">
-        <v>0.008888468356299806</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P23">
-        <v>0.008926242805105003</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q23">
-        <v>15.37492828932711</v>
+        <v>9.825110275345752</v>
       </c>
       <c r="R23">
-        <v>138.374354603944</v>
+        <v>39.30044110138301</v>
       </c>
       <c r="S23">
-        <v>9.647691791119519E-05</v>
+        <v>3.075699832379742E-05</v>
       </c>
       <c r="T23">
-        <v>9.789217599330357E-05</v>
+        <v>1.400223540132416E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.51036533333333</v>
+        <v>44.2416095</v>
       </c>
       <c r="H24">
-        <v>34.531096</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I24">
-        <v>0.01085416677473077</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J24">
-        <v>0.0109667839124114</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>64.66363666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N24">
-        <v>193.99091</v>
+        <v>434.038033</v>
       </c>
       <c r="O24">
-        <v>0.4302917956590069</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P24">
-        <v>0.4321204611562404</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q24">
-        <v>744.3020818152621</v>
+        <v>6400.847054711371</v>
       </c>
       <c r="R24">
-        <v>6698.718736337359</v>
+        <v>38405.08232826822</v>
       </c>
       <c r="S24">
-        <v>0.004670458911881236</v>
+        <v>0.02003751984612847</v>
       </c>
       <c r="T24">
-        <v>0.004738971721632053</v>
+        <v>0.01368323072966024</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.51036533333333</v>
+        <v>44.2416095</v>
       </c>
       <c r="H25">
-        <v>34.531096</v>
+        <v>88.48321900000001</v>
       </c>
       <c r="I25">
-        <v>0.01085416677473077</v>
+        <v>0.040640392539379</v>
       </c>
       <c r="J25">
-        <v>0.0109667839124114</v>
+        <v>0.02771826221322878</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.745477</v>
+        <v>42.688082</v>
       </c>
       <c r="N25">
-        <v>5.236431</v>
+        <v>128.064246</v>
       </c>
       <c r="O25">
-        <v>0.01161494266836776</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P25">
-        <v>0.01166430416009097</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q25">
-        <v>20.09107795093066</v>
+        <v>1888.589454147979</v>
       </c>
       <c r="R25">
-        <v>180.819701558376</v>
+        <v>11331.53672488787</v>
       </c>
       <c r="S25">
-        <v>0.0001260705248014001</v>
+        <v>0.005912131370304313</v>
       </c>
       <c r="T25">
-        <v>0.0001279199032123591</v>
+        <v>0.004037278977895398</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.51036533333333</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H26">
-        <v>34.531096</v>
+        <v>0.453755</v>
       </c>
       <c r="I26">
-        <v>0.01085416677473077</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J26">
-        <v>0.0109667839124114</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>80.62584666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N26">
-        <v>241.87754</v>
+        <v>1.729813</v>
       </c>
       <c r="O26">
-        <v>0.5365092674506413</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P26">
-        <v>0.5387893387795181</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q26">
-        <v>928.0329504426487</v>
+        <v>0.1308185496358333</v>
       </c>
       <c r="R26">
-        <v>8352.296553983839</v>
+        <v>0.784911297815</v>
       </c>
       <c r="S26">
-        <v>0.005823361065097897</v>
+        <v>4.095206872097263E-07</v>
       </c>
       <c r="T26">
-        <v>0.005908786252705996</v>
+        <v>2.796536744412705E-07</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.363916666666667</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H27">
-        <v>4.09175</v>
+        <v>0.453755</v>
       </c>
       <c r="I27">
-        <v>0.001286160650693063</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J27">
-        <v>0.001299505178567439</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>1.9078655</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N27">
-        <v>3.815731</v>
+        <v>4.007239</v>
       </c>
       <c r="O27">
-        <v>0.01269552586568416</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P27">
-        <v>0.00849965309904553</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q27">
-        <v>2.602169553208333</v>
+        <v>0.2020338591605556</v>
       </c>
       <c r="R27">
-        <v>15.61301731925</v>
+        <v>1.818304732445</v>
       </c>
       <c r="S27">
-        <v>1.632848580829895E-05</v>
+        <v>6.324565214442703E-07</v>
       </c>
       <c r="T27">
-        <v>1.104534321823644E-05</v>
+        <v>6.478382985411501E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.363916666666667</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H28">
-        <v>4.09175</v>
+        <v>0.453755</v>
       </c>
       <c r="I28">
-        <v>0.001286160650693063</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J28">
-        <v>0.001299505178567439</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.335746333333333</v>
+        <v>103.650617</v>
       </c>
       <c r="N28">
-        <v>4.007239</v>
+        <v>310.951851</v>
       </c>
       <c r="O28">
-        <v>0.008888468356299806</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P28">
-        <v>0.008926242805105003</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q28">
-        <v>1.821846686472222</v>
+        <v>15.67732857227834</v>
       </c>
       <c r="R28">
-        <v>16.39662017825</v>
+        <v>141.095957150505</v>
       </c>
       <c r="S28">
-        <v>1.143199824480326E-05</v>
+        <v>4.907706428793417E-05</v>
       </c>
       <c r="T28">
-        <v>1.159969875038429E-05</v>
+        <v>5.027065220718335E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.363916666666667</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H29">
-        <v>4.09175</v>
+        <v>0.453755</v>
       </c>
       <c r="I29">
-        <v>0.001286160650693063</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J29">
-        <v>0.001299505178567439</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>64.66363666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N29">
-        <v>193.99091</v>
+        <v>0.444157</v>
       </c>
       <c r="O29">
-        <v>0.4302917956590069</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P29">
-        <v>0.4321204611562404</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q29">
-        <v>88.19581177694444</v>
+        <v>0.03358974325583334</v>
       </c>
       <c r="R29">
-        <v>793.7623059924999</v>
+        <v>0.201538459535</v>
       </c>
       <c r="S29">
-        <v>0.000553424375892675</v>
+        <v>1.051509497668305E-07</v>
       </c>
       <c r="T29">
-        <v>0.0005615427770374841</v>
+        <v>7.180552873565604E-08</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.363916666666667</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H30">
-        <v>4.09175</v>
+        <v>0.453755</v>
       </c>
       <c r="I30">
-        <v>0.001286160650693063</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J30">
-        <v>0.001299505178567439</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.745477</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N30">
-        <v>5.236431</v>
+        <v>434.038033</v>
       </c>
       <c r="O30">
-        <v>0.01161494266836776</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P30">
-        <v>0.01166430416009097</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q30">
-        <v>2.380685171583333</v>
+        <v>21.88299196265722</v>
       </c>
       <c r="R30">
-        <v>21.42616654425</v>
+        <v>196.946927663915</v>
       </c>
       <c r="S30">
-        <v>1.49386822201105E-05</v>
+        <v>6.850357179237209E-05</v>
       </c>
       <c r="T30">
-        <v>1.515782366042394E-05</v>
+        <v>7.016962572006998E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.363916666666667</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H31">
-        <v>4.09175</v>
+        <v>0.453755</v>
       </c>
       <c r="I31">
-        <v>0.001286160650693063</v>
+        <v>0.0001389399521183478</v>
       </c>
       <c r="J31">
-        <v>0.001299505178567439</v>
+        <v>0.0001421433376035248</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.62584666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N31">
-        <v>241.87754</v>
+        <v>128.064246</v>
       </c>
       <c r="O31">
-        <v>0.5365092674506413</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P31">
-        <v>0.5387893387795181</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q31">
-        <v>109.9669360327778</v>
+        <v>6.456643549303334</v>
       </c>
       <c r="R31">
-        <v>989.702424295</v>
+        <v>58.10979194373</v>
       </c>
       <c r="S31">
-        <v>0.0006900371085271756</v>
+        <v>2.021218787962068E-05</v>
       </c>
       <c r="T31">
-        <v>0.0007001595359009098</v>
+        <v>2.070376217455342E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.222333</v>
+      </c>
+      <c r="H32">
+        <v>0.666999</v>
+      </c>
+      <c r="I32">
+        <v>0.0002042353453361084</v>
+      </c>
+      <c r="J32">
+        <v>0.0002089441748040539</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.8649065</v>
+      </c>
+      <c r="N32">
+        <v>1.729813</v>
+      </c>
+      <c r="O32">
+        <v>0.002947465296813262</v>
+      </c>
+      <c r="P32">
+        <v>0.001967406134934711</v>
+      </c>
+      <c r="Q32">
+        <v>0.1922972568645</v>
+      </c>
+      <c r="R32">
+        <v>1.153783541187</v>
+      </c>
+      <c r="S32">
+        <v>6.019765927608516E-07</v>
+      </c>
+      <c r="T32">
+        <v>4.110780513683661E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.222333</v>
+      </c>
+      <c r="H33">
+        <v>0.666999</v>
+      </c>
+      <c r="I33">
+        <v>0.0002042353453361084</v>
+      </c>
+      <c r="J33">
+        <v>0.0002089441748040539</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.007239</v>
+      </c>
+      <c r="O33">
+        <v>0.004552013382770923</v>
+      </c>
+      <c r="P33">
+        <v>0.004557640966248742</v>
+      </c>
+      <c r="Q33">
+        <v>0.296980489529</v>
+      </c>
+      <c r="R33">
+        <v>2.672824405761</v>
+      </c>
+      <c r="S33">
+        <v>9.296820252048063E-07</v>
+      </c>
+      <c r="T33">
+        <v>9.52292530745994E-07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.222333</v>
+      </c>
+      <c r="H34">
+        <v>0.666999</v>
+      </c>
+      <c r="I34">
+        <v>0.0002042353453361084</v>
+      </c>
+      <c r="J34">
+        <v>0.0002089441748040539</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>103.650617</v>
+      </c>
+      <c r="N34">
+        <v>310.951851</v>
+      </c>
+      <c r="O34">
+        <v>0.353224997847493</v>
+      </c>
+      <c r="P34">
+        <v>0.3536616844287238</v>
+      </c>
+      <c r="Q34">
+        <v>23.044952629461</v>
+      </c>
+      <c r="R34">
+        <v>207.404573665149</v>
+      </c>
+      <c r="S34">
+        <v>7.214102941672886E-05</v>
+      </c>
+      <c r="T34">
+        <v>7.38955488127714E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.222333</v>
+      </c>
+      <c r="H35">
+        <v>0.666999</v>
+      </c>
+      <c r="I35">
+        <v>0.0002042353453361084</v>
+      </c>
+      <c r="J35">
+        <v>0.0002089441748040539</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.2220785</v>
+      </c>
+      <c r="N35">
+        <v>0.444157</v>
+      </c>
+      <c r="O35">
+        <v>0.0007568085936668807</v>
+      </c>
+      <c r="P35">
+        <v>0.0005051628162548184</v>
+      </c>
+      <c r="Q35">
+        <v>0.0493753791405</v>
+      </c>
+      <c r="R35">
+        <v>0.296252274843</v>
+      </c>
+      <c r="S35">
+        <v>1.545670644808899E-07</v>
+      </c>
+      <c r="T35">
+        <v>1.055508277840549E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.222333</v>
+      </c>
+      <c r="H36">
+        <v>0.666999</v>
+      </c>
+      <c r="I36">
+        <v>0.0002042353453361084</v>
+      </c>
+      <c r="J36">
+        <v>0.0002089441748040539</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>144.6793443333333</v>
+      </c>
+      <c r="N36">
+        <v>434.038033</v>
+      </c>
+      <c r="O36">
+        <v>0.4930444465247936</v>
+      </c>
+      <c r="P36">
+        <v>0.4936539897198103</v>
+      </c>
+      <c r="Q36">
+        <v>32.166992663663</v>
+      </c>
+      <c r="R36">
+        <v>289.502933972967</v>
+      </c>
+      <c r="S36">
+        <v>0.0001006971028020416</v>
+      </c>
+      <c r="T36">
+        <v>0.0001031461255207347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.222333</v>
+      </c>
+      <c r="H37">
+        <v>0.666999</v>
+      </c>
+      <c r="I37">
+        <v>0.0002042353453361084</v>
+      </c>
+      <c r="J37">
+        <v>0.0002089441748040539</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.688082</v>
+      </c>
+      <c r="N37">
+        <v>128.064246</v>
+      </c>
+      <c r="O37">
+        <v>0.1454742683544624</v>
+      </c>
+      <c r="P37">
+        <v>0.1456541159340275</v>
+      </c>
+      <c r="Q37">
+        <v>9.490969335306</v>
+      </c>
+      <c r="R37">
+        <v>85.418724017754</v>
+      </c>
+      <c r="S37">
+        <v>2.971098743489133E-05</v>
+      </c>
+      <c r="T37">
+        <v>3.043357906064937E-05</v>
       </c>
     </row>
   </sheetData>
